--- a/InputData/elec/BDtESQutR/Does this Elec Source Qualify under RPS.xlsx
+++ b/InputData/elec/BDtESQutR/Does this Elec Source Qualify under RPS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>BDtESQutR Boolean Does this Electricity Source Qualify under the RPS</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Page 8, Table 1</t>
   </si>
   <si>
-    <t>Note:</t>
-  </si>
-  <si>
     <t>Each U.S. state that has an RPS defines the sources that qualify for that RPS, leading to</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>coal</t>
   </si>
   <si>
-    <t>natural gas</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -81,6 +75,21 @@
   </si>
   <si>
     <t>Renewables Portfolio Standard Eligibility Seventh Edition Commission Guidebook</t>
+  </si>
+  <si>
+    <t>geothermal</t>
+  </si>
+  <si>
+    <t>petroleum</t>
+  </si>
+  <si>
+    <t>natural gas peaker</t>
+  </si>
+  <si>
+    <t>natural gas nonpeaker</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -445,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,7 +480,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -486,30 +495,32 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -526,7 +537,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -538,15 +549,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -554,7 +565,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -562,7 +573,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -570,7 +581,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -578,7 +589,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -586,7 +597,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -594,7 +605,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -602,10 +613,34 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
